--- a/Trabajos/Grades.xlsx
+++ b/Trabajos/Grades.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ingenieria_Software\Matlab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ingenieria_Software\Matlab\Trabajos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FB509D-20C0-49EC-B7CB-975FA11C439C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C7BA9E-3F8D-47C0-95B8-8CD782DC7B3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D73CD6A-F061-4173-91F4-85B626FD434B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{0D73CD6A-F061-4173-91F4-85B626FD434B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -533,7 +533,7 @@
   <dimension ref="D7:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,11 +587,11 @@
         <v>4</v>
       </c>
       <c r="E10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="0"/>
-        <v>0.65</v>
+        <v>0.52</v>
       </c>
       <c r="G10" s="7">
         <v>13</v>
@@ -678,11 +678,11 @@
       </c>
       <c r="E16" s="3">
         <f>SUM(E8:E15)</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F16" s="8">
         <f>SUM(F8:F15)</f>
-        <v>5</v>
+        <v>4.87</v>
       </c>
       <c r="G16" s="3">
         <f>SUM(G8:G15)</f>
